--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H2">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.8229900544327</v>
+        <v>27.592778</v>
       </c>
       <c r="N2">
-        <v>23.8229900544327</v>
+        <v>82.778334</v>
       </c>
       <c r="O2">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="P2">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="Q2">
-        <v>26.7772275591431</v>
+        <v>50.37196828512199</v>
       </c>
       <c r="R2">
-        <v>26.7772275591431</v>
+        <v>453.347714566098</v>
       </c>
       <c r="S2">
-        <v>0.0078135871766562</v>
+        <v>0.01260698443463581</v>
       </c>
       <c r="T2">
-        <v>0.0078135871766562</v>
+        <v>0.01260698443463581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H3">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.7640601289208</v>
+        <v>65.63594833333333</v>
       </c>
       <c r="N3">
-        <v>64.7640601289208</v>
+        <v>196.907845</v>
       </c>
       <c r="O3">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830753</v>
       </c>
       <c r="P3">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830752</v>
       </c>
       <c r="Q3">
-        <v>72.79531124194291</v>
+        <v>119.8216398439683</v>
       </c>
       <c r="R3">
-        <v>72.79531124194291</v>
+        <v>1078.394758595715</v>
       </c>
       <c r="S3">
-        <v>0.0212416505474454</v>
+        <v>0.02998869410651198</v>
       </c>
       <c r="T3">
-        <v>0.0212416505474454</v>
+        <v>0.02998869410651198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H4">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I4">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J4">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.160298683529049</v>
+        <v>9.572925333333334</v>
       </c>
       <c r="N4">
-        <v>9.160298683529049</v>
+        <v>28.718776</v>
       </c>
       <c r="O4">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831214</v>
       </c>
       <c r="P4">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831213</v>
       </c>
       <c r="Q4">
-        <v>10.29624752384666</v>
+        <v>17.47584426934133</v>
       </c>
       <c r="R4">
-        <v>10.29624752384666</v>
+        <v>157.282598424072</v>
       </c>
       <c r="S4">
-        <v>0.003004442018588908</v>
+        <v>0.004373815520541794</v>
       </c>
       <c r="T4">
-        <v>0.003004442018588908</v>
+        <v>0.004373815520541793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.8229900544327</v>
+        <v>27.592778</v>
       </c>
       <c r="N5">
-        <v>23.8229900544327</v>
+        <v>82.778334</v>
       </c>
       <c r="O5">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="P5">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="Q5">
-        <v>560.5137960079327</v>
+        <v>650.5653109881206</v>
       </c>
       <c r="R5">
-        <v>560.5137960079327</v>
+        <v>5855.087798893085</v>
       </c>
       <c r="S5">
-        <v>0.1635577618763242</v>
+        <v>0.1628220422699604</v>
       </c>
       <c r="T5">
-        <v>0.1635577618763242</v>
+        <v>0.1628220422699604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J6">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.7640601289208</v>
+        <v>65.63594833333333</v>
       </c>
       <c r="N6">
-        <v>64.7640601289208</v>
+        <v>196.907845</v>
       </c>
       <c r="O6">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830753</v>
       </c>
       <c r="P6">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830752</v>
       </c>
       <c r="Q6">
-        <v>1523.78643926743</v>
+        <v>1547.523454850223</v>
       </c>
       <c r="R6">
-        <v>1523.78643926743</v>
+        <v>13927.711093652</v>
       </c>
       <c r="S6">
-        <v>0.4446404376825491</v>
+        <v>0.3873107359454325</v>
       </c>
       <c r="T6">
-        <v>0.4446404376825491</v>
+        <v>0.3873107359454324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J7">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.160298683529049</v>
+        <v>9.572925333333334</v>
       </c>
       <c r="N7">
-        <v>9.160298683529049</v>
+        <v>28.718776</v>
       </c>
       <c r="O7">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831214</v>
       </c>
       <c r="P7">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831213</v>
       </c>
       <c r="Q7">
-        <v>215.5260013935981</v>
+        <v>225.7044631949004</v>
       </c>
       <c r="R7">
-        <v>215.5260013935981</v>
+        <v>2031.340168754104</v>
       </c>
       <c r="S7">
-        <v>0.06289042422354854</v>
+        <v>0.05648881215480279</v>
       </c>
       <c r="T7">
-        <v>0.06289042422354854</v>
+        <v>0.05648881215480279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H8">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I8">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J8">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.8229900544327</v>
+        <v>27.592778</v>
       </c>
       <c r="N8">
-        <v>23.8229900544327</v>
+        <v>82.778334</v>
       </c>
       <c r="O8">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="P8">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="Q8">
-        <v>247.9396391861356</v>
+        <v>371.5028074554673</v>
       </c>
       <c r="R8">
-        <v>247.9396391861356</v>
+        <v>3343.525267099206</v>
       </c>
       <c r="S8">
-        <v>0.07234871425918261</v>
+        <v>0.09297889819401638</v>
       </c>
       <c r="T8">
-        <v>0.07234871425918261</v>
+        <v>0.09297889819401638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H9">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I9">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J9">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>64.7640601289208</v>
+        <v>65.63594833333333</v>
       </c>
       <c r="N9">
-        <v>64.7640601289208</v>
+        <v>196.907845</v>
       </c>
       <c r="O9">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830753</v>
       </c>
       <c r="P9">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830752</v>
       </c>
       <c r="Q9">
-        <v>674.0370400148829</v>
+        <v>883.7072902132338</v>
       </c>
       <c r="R9">
-        <v>674.0370400148829</v>
+        <v>7953.365611919106</v>
       </c>
       <c r="S9">
-        <v>0.1966838113026863</v>
+        <v>0.2211722994311308</v>
       </c>
       <c r="T9">
-        <v>0.1966838113026863</v>
+        <v>0.2211722994311308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H10">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I10">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J10">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.160298683529049</v>
+        <v>9.572925333333334</v>
       </c>
       <c r="N10">
-        <v>9.160298683529049</v>
+        <v>28.718776</v>
       </c>
       <c r="O10">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831214</v>
       </c>
       <c r="P10">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831213</v>
       </c>
       <c r="Q10">
-        <v>95.33652766684619</v>
+        <v>128.8876617241982</v>
       </c>
       <c r="R10">
-        <v>95.33652766684619</v>
+        <v>1159.988955517784</v>
       </c>
       <c r="S10">
-        <v>0.02781917091301878</v>
+        <v>0.03225771794296756</v>
       </c>
       <c r="T10">
-        <v>0.02781917091301878</v>
+        <v>0.03225771794296755</v>
       </c>
     </row>
   </sheetData>
